--- a/test/New Microsoft Excel Worksheet.xlsx
+++ b/test/New Microsoft Excel Worksheet.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,13 +11,24 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>sdfsdf</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,8 +63,41 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -343,36 +387,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
